--- a/NewCo/BG RadarChart/df_wtd_bg_score.xlsx
+++ b/NewCo/BG RadarChart/df_wtd_bg_score.xlsx
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3527757149.239588</v>
+        <v>3527618567.409587</v>
       </c>
       <c r="F2" t="n">
         <v>3588820452.99262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8782962401359057</v>
+        <v>0.878260167158563</v>
       </c>
       <c r="H2" t="n">
         <v>0.91</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9651607034460502</v>
+        <v>0.9651210628116077</v>
       </c>
       <c r="J2" t="n">
-        <v>3.651607034460502</v>
+        <v>3.651210628116077</v>
       </c>
     </row>
     <row r="3">
@@ -543,22 +543,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>427194144.0742665</v>
+        <v>427184597.2942665</v>
       </c>
       <c r="F3" t="n">
         <v>454430929.2621872</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8384264353161833</v>
+        <v>0.8384094764219292</v>
       </c>
       <c r="H3" t="n">
         <v>0.89</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9420521745125655</v>
+        <v>0.9420331195752013</v>
       </c>
       <c r="J3" t="n">
-        <v>3.420521745125655</v>
+        <v>3.420331195752013</v>
       </c>
     </row>
     <row r="4">
@@ -581,22 +581,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>576708127.8804007</v>
+        <v>576591571.1680644</v>
       </c>
       <c r="F4" t="n">
         <v>618311228.9837253</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8512774530436522</v>
+        <v>0.8511408073092674</v>
       </c>
       <c r="H4" t="n">
         <v>0.89</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9564915202737665</v>
+        <v>0.9563379857407499</v>
       </c>
       <c r="J4" t="n">
-        <v>3.564915202737665</v>
+        <v>3.563379857407499</v>
       </c>
     </row>
     <row r="5">
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>491049962.5969589</v>
+        <v>491048032.4292018</v>
       </c>
       <c r="F5" t="n">
         <v>507544730.1587822</v>
       </c>
       <c r="G5" t="n">
-        <v>0.859124376183901</v>
+        <v>0.8591213075068007</v>
       </c>
       <c r="H5" t="n">
         <v>0.89</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9653082878470798</v>
+        <v>0.9653048398952817</v>
       </c>
       <c r="J5" t="n">
-        <v>3.653082878470798</v>
+        <v>3.653048398952817</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>330902366.4529505</v>
+        <v>330900943.5429505</v>
       </c>
       <c r="F6" t="n">
         <v>336392834.9350873</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8727618461451191</v>
+        <v>0.8727580900158011</v>
       </c>
       <c r="H6" t="n">
         <v>0.89</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9806312878035046</v>
+        <v>0.9806270674334844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.806312878035046</v>
+        <v>3.806270674334844</v>
       </c>
     </row>
     <row r="7">
@@ -695,22 +695,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>277240112.5906139</v>
+        <v>277237073.4106139</v>
       </c>
       <c r="F7" t="n">
         <v>293107125.6539316</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8409234885071926</v>
+        <v>0.8409147649676295</v>
       </c>
       <c r="H7" t="n">
         <v>0.89</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9448578522552725</v>
+        <v>0.9448480505254264</v>
       </c>
       <c r="J7" t="n">
-        <v>3.448578522552725</v>
+        <v>3.448480505254264</v>
       </c>
     </row>
     <row r="8">
@@ -733,22 +733,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>246752087.1780291</v>
+        <v>246751707.7080292</v>
       </c>
       <c r="F8" t="n">
         <v>256315640.5938552</v>
       </c>
       <c r="G8" t="n">
-        <v>0.857644231527831</v>
+        <v>0.8576429781076463</v>
       </c>
       <c r="H8" t="n">
         <v>0.89</v>
       </c>
       <c r="I8" t="n">
-        <v>0.963645203963855</v>
+        <v>0.9636437956265689</v>
       </c>
       <c r="J8" t="n">
-        <v>3.63645203963855</v>
+        <v>3.636437956265689</v>
       </c>
     </row>
     <row r="9">
@@ -771,22 +771,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>364910471.0366858</v>
+        <v>364907955.2066858</v>
       </c>
       <c r="F9" t="n">
         <v>374545114.3995946</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8622608793773798</v>
+        <v>0.8622554072661635</v>
       </c>
       <c r="H9" t="n">
         <v>0.89</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9688324487386291</v>
+        <v>0.96882630029906</v>
       </c>
       <c r="J9" t="n">
-        <v>3.688324487386291</v>
+        <v>3.6882630029906</v>
       </c>
     </row>
     <row r="10">
@@ -809,22 +809,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>282659744.8002554</v>
+        <v>282657546.9702554</v>
       </c>
       <c r="F10" t="n">
         <v>288172849.6210856</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8658314120393427</v>
+        <v>0.8658246966747074</v>
       </c>
       <c r="H10" t="n">
         <v>0.89</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9728442831902726</v>
+        <v>0.9728367378367498</v>
       </c>
       <c r="J10" t="n">
-        <v>3.728442831902726</v>
+        <v>3.728367378367498</v>
       </c>
     </row>
     <row r="11">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13812269.36803795</v>
+        <v>13812204.97803795</v>
       </c>
       <c r="F11" t="n">
         <v>19155188.77791003</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6542102739401561</v>
+        <v>0.6542079014784425</v>
       </c>
       <c r="H11" t="n">
         <v>0.89</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7350677235282652</v>
+        <v>0.7350650578409467</v>
       </c>
       <c r="J11" t="n">
-        <v>1.350677235282652</v>
+        <v>1.350650578409467</v>
       </c>
     </row>
     <row r="12">
@@ -885,22 +885,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34037555.21192016</v>
+        <v>34037056.21192016</v>
       </c>
       <c r="F12" t="n">
         <v>35506616.6957174</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8630781260953949</v>
+        <v>0.8630666179974148</v>
       </c>
       <c r="H12" t="n">
         <v>0.89</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9697507034779718</v>
+        <v>0.9697377730308031</v>
       </c>
       <c r="J12" t="n">
-        <v>3.697507034779718</v>
+        <v>3.697377730308031</v>
       </c>
     </row>
     <row r="13">
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35865933.92163485</v>
+        <v>35865933.92163486</v>
       </c>
       <c r="F13" t="n">
         <v>42646420.20129485</v>
       </c>
       <c r="G13" t="n">
-        <v>0.826106253987235</v>
+        <v>0.8261062539872351</v>
       </c>
       <c r="H13" t="n">
         <v>0.89</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9282092741429607</v>
+        <v>0.9282092741429608</v>
       </c>
       <c r="J13" t="n">
-        <v>3.282092741429607</v>
+        <v>3.282092741429608</v>
       </c>
     </row>
     <row r="14">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>34420517.39286862</v>
+        <v>34420284.89286862</v>
       </c>
       <c r="F14" t="n">
         <v>38106534.78760685</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8046697912387266</v>
+        <v>0.8046651937545778</v>
       </c>
       <c r="H14" t="n">
         <v>0.89</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9041233609423894</v>
+        <v>0.9041181952298627</v>
       </c>
       <c r="J14" t="n">
-        <v>3.041233609423894</v>
+        <v>3.041181952298627</v>
       </c>
     </row>
     <row r="15">
@@ -999,22 +999,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33925718.38816111</v>
+        <v>33924719.38816111</v>
       </c>
       <c r="F15" t="n">
         <v>36145510.01727208</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8548835108848727</v>
+        <v>0.8548623898925105</v>
       </c>
       <c r="H15" t="n">
         <v>0.89</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9605432706571603</v>
+        <v>0.9605195392050679</v>
       </c>
       <c r="J15" t="n">
-        <v>3.605432706571603</v>
+        <v>3.605195392050679</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>45140207.73503579</v>
+        <v>45139368.43503579</v>
       </c>
       <c r="F16" t="n">
         <v>31077828.80386819</v>
@@ -1075,19 +1075,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7606718.516775115</v>
+        <v>7607279.264438667</v>
       </c>
       <c r="F17" t="n">
         <v>14724626.72482562</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4811756638125789</v>
+        <v>0.4812278293516606</v>
       </c>
       <c r="H17" t="n">
         <v>0.89</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5406468132725606</v>
+        <v>0.5407054262378209</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1113,22 +1113,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>40206499.18016332</v>
+        <v>40205974.92016333</v>
       </c>
       <c r="F18" t="n">
         <v>40307715.97272073</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9186201665703704</v>
+        <v>0.9186110558480766</v>
       </c>
       <c r="H18" t="n">
         <v>0.89</v>
       </c>
       <c r="I18" t="n">
-        <v>1.032157490528506</v>
+        <v>1.032147253761884</v>
       </c>
       <c r="J18" t="n">
-        <v>4.160787452642531</v>
+        <v>4.160736268809418</v>
       </c>
     </row>
     <row r="19">
@@ -1157,16 +1157,16 @@
         <v>25131280.75564541</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7900556631146968</v>
+        <v>0.7900556631146967</v>
       </c>
       <c r="H19" t="n">
         <v>0.89</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8877029922637042</v>
+        <v>0.8877029922637041</v>
       </c>
       <c r="J19" t="n">
-        <v>2.877029922637042</v>
+        <v>2.877029922637041</v>
       </c>
     </row>
     <row r="20">
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>19571330.2288901</v>
+        <v>19570958.7588901</v>
       </c>
       <c r="F20" t="n">
         <v>25766734.71023686</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6867403679123888</v>
+        <v>0.6867299433147215</v>
       </c>
       <c r="H20" t="n">
         <v>0.89</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7716183909127964</v>
+        <v>0.7716066778817096</v>
       </c>
       <c r="J20" t="n">
-        <v>1.716183909127964</v>
+        <v>1.716066778817095</v>
       </c>
     </row>
     <row r="21">
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17892533.35391325</v>
+        <v>17890570.77391325</v>
       </c>
       <c r="F21" t="n">
         <v>23639657.6991851</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6583711727575049</v>
+        <v>0.6583069294047106</v>
       </c>
       <c r="H21" t="n">
         <v>0.89</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7397428907387695</v>
+        <v>0.739670707196304</v>
       </c>
       <c r="J21" t="n">
-        <v>1.397428907387695</v>
+        <v>1.39670707196304</v>
       </c>
     </row>
     <row r="22">
@@ -1265,22 +1265,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27517706.42741773</v>
+        <v>27517003.75741773</v>
       </c>
       <c r="F22" t="n">
         <v>31382342.02402327</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7638043437930336</v>
+        <v>0.7637868183200133</v>
       </c>
       <c r="H22" t="n">
         <v>0.89</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8582071278573411</v>
+        <v>0.8581874363146217</v>
       </c>
       <c r="J22" t="n">
-        <v>2.582071278573411</v>
+        <v>2.581874363146217</v>
       </c>
     </row>
     <row r="23">
@@ -1303,22 +1303,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>31608478.30110345</v>
+        <v>31608435.61110345</v>
       </c>
       <c r="F23" t="n">
         <v>33143002.97392134</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8450678591881601</v>
+        <v>0.8450668185681169</v>
       </c>
       <c r="H23" t="n">
         <v>0.89</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9495144485260225</v>
+        <v>0.9495132792900191</v>
       </c>
       <c r="J23" t="n">
-        <v>3.495144485260225</v>
+        <v>3.49513279290019</v>
       </c>
     </row>
     <row r="24">
@@ -1341,22 +1341,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32378614.48380322</v>
+        <v>32377505.06380322</v>
       </c>
       <c r="F24" t="n">
         <v>34162863.70654134</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8409049038843638</v>
+        <v>0.8408788565618343</v>
       </c>
       <c r="H24" t="n">
         <v>0.89</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9448369706565886</v>
+        <v>0.9448077040020609</v>
       </c>
       <c r="J24" t="n">
-        <v>3.448369706565885</v>
+        <v>3.448077040020609</v>
       </c>
     </row>
     <row r="25">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19610761.15762654</v>
+        <v>19610192.10762654</v>
       </c>
       <c r="F25" t="n">
         <v>24670671.48563758</v>
       </c>
       <c r="G25" t="n">
-        <v>0.698371433890884</v>
+        <v>0.6983531626857383</v>
       </c>
       <c r="H25" t="n">
         <v>0.89</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7846870043717797</v>
+        <v>0.7846664749277958</v>
       </c>
       <c r="J25" t="n">
-        <v>1.846870043717797</v>
+        <v>1.846664749277958</v>
       </c>
     </row>
     <row r="26">
@@ -1417,22 +1417,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>54690093.69388343</v>
+        <v>54581308.11388343</v>
       </c>
       <c r="F26" t="n">
         <v>55793028.59254196</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9095407946270323</v>
+        <v>0.9082492452048909</v>
       </c>
       <c r="H26" t="n">
         <v>0.89</v>
       </c>
       <c r="I26" t="n">
-        <v>1.021955949019137</v>
+        <v>1.020504769893136</v>
       </c>
       <c r="J26" t="n">
-        <v>4.109779745095687</v>
+        <v>4.102523849465679</v>
       </c>
     </row>
     <row r="27">
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>41161393.97784554</v>
+        <v>41159736.41784554</v>
       </c>
       <c r="F27" t="n">
         <v>47241167.12230221</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7866738100643158</v>
+        <v>0.7866488314022383</v>
       </c>
       <c r="H27" t="n">
         <v>0.89</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8839031573756357</v>
+        <v>0.8838750914631891</v>
       </c>
       <c r="J27" t="n">
-        <v>2.839031573756357</v>
+        <v>2.838750914631891</v>
       </c>
     </row>
     <row r="28">
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>23046197.59075053</v>
+        <v>23045708.29075053</v>
       </c>
       <c r="F28" t="n">
         <v>26918735.54737832</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7672438285937031</v>
+        <v>0.7672299265834066</v>
       </c>
       <c r="H28" t="n">
         <v>0.89</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8620717175210147</v>
+        <v>0.8620560972847265</v>
       </c>
       <c r="J28" t="n">
-        <v>2.620717175210147</v>
+        <v>2.620560972847265</v>
       </c>
     </row>
     <row r="29">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31230876.96349257</v>
+        <v>31230235.86349257</v>
       </c>
       <c r="F29" t="n">
         <v>35685916.64372314</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7988807254660119</v>
+        <v>0.7988672441044173</v>
       </c>
       <c r="H29" t="n">
         <v>0.89</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8976187926584402</v>
+        <v>0.8976036450611431</v>
       </c>
       <c r="J29" t="n">
-        <v>2.976187926584402</v>
+        <v>2.976036450611431</v>
       </c>
     </row>
     <row r="30">
@@ -1569,22 +1569,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>37115373.25302793</v>
+        <v>37114973.30302793</v>
       </c>
       <c r="F30" t="n">
         <v>36519493.3489143</v>
       </c>
       <c r="G30" t="n">
-        <v>0.901320586711121</v>
+        <v>0.9013120570814861</v>
       </c>
       <c r="H30" t="n">
         <v>0.89</v>
       </c>
       <c r="I30" t="n">
-        <v>1.012719760349574</v>
+        <v>1.012710176496052</v>
       </c>
       <c r="J30" t="n">
-        <v>4.063598801747871</v>
+        <v>4.063550882480259</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>30522718.95581237</v>
+        <v>30522718.95581238</v>
       </c>
       <c r="F31" t="n">
         <v>34794807.44222105</v>
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27989966.91129098</v>
+        <v>27988352.86129098</v>
       </c>
       <c r="F32" t="n">
         <v>29278410.21904352</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8692357006033179</v>
+        <v>0.8691906974316136</v>
       </c>
       <c r="H32" t="n">
         <v>0.89</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9766693265205819</v>
+        <v>0.9766187611591164</v>
       </c>
       <c r="J32" t="n">
-        <v>3.766693265205819</v>
+        <v>3.766187611591164</v>
       </c>
     </row>
     <row r="33">
@@ -1689,7 +1689,7 @@
         <v>43511212.62050287</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9130853430050454</v>
+        <v>0.9130853430050455</v>
       </c>
       <c r="H33" t="n">
         <v>0.89</v>
@@ -1721,22 +1721,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46997427.36305358</v>
+        <v>46996866.07305358</v>
       </c>
       <c r="F34" t="n">
         <v>41978548.31691929</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9896312824042631</v>
+        <v>0.9896203252953641</v>
       </c>
       <c r="H34" t="n">
         <v>0.89</v>
       </c>
       <c r="I34" t="n">
-        <v>1.111945261128386</v>
+        <v>1.111932949770072</v>
       </c>
       <c r="J34" t="n">
-        <v>4.559726305641928</v>
+        <v>4.55966474885036</v>
       </c>
     </row>
     <row r="35">
@@ -1759,22 +1759,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>53727027.91937312</v>
+        <v>53727462.61937313</v>
       </c>
       <c r="F35" t="n">
         <v>52214396.15896482</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9206915891822068</v>
+        <v>0.9206986173482832</v>
       </c>
       <c r="H35" t="n">
         <v>0.89</v>
       </c>
       <c r="I35" t="n">
-        <v>1.034484931665401</v>
+        <v>1.034492828481217</v>
       </c>
       <c r="J35" t="n">
-        <v>4.172424658327005</v>
+        <v>4.172464142406085</v>
       </c>
     </row>
     <row r="36">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>50058916.57829289</v>
+        <v>50058480.57829288</v>
       </c>
       <c r="F37" t="n">
         <v>43068302.46125108</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9366931586212208</v>
+        <v>0.9366844852324768</v>
       </c>
       <c r="H37" t="n">
         <v>0.89</v>
       </c>
       <c r="I37" t="n">
-        <v>1.052464223169911</v>
+        <v>1.0524544777893</v>
       </c>
       <c r="J37" t="n">
-        <v>4.262321115849556</v>
+        <v>4.262272388946498</v>
       </c>
     </row>
     <row r="38">
@@ -1879,16 +1879,16 @@
         <v>33835437.1712788</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7247676942099173</v>
+        <v>0.7247676942099174</v>
       </c>
       <c r="H38" t="n">
         <v>0.89</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8143457238313677</v>
+        <v>0.8143457238313678</v>
       </c>
       <c r="J38" t="n">
-        <v>2.143457238313677</v>
+        <v>2.143457238313678</v>
       </c>
     </row>
     <row r="39">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42165309.7172685</v>
+        <v>42165031.40726849</v>
       </c>
       <c r="F39" t="n">
         <v>37264898.65878228</v>
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19526150.65315493</v>
+        <v>19525651.65315493</v>
       </c>
       <c r="F40" t="n">
         <v>24042825.46234443</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7232868075815942</v>
+        <v>0.7232705610710324</v>
       </c>
       <c r="H40" t="n">
         <v>0.89</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8126818062714543</v>
+        <v>0.8126635517652049</v>
       </c>
       <c r="J40" t="n">
-        <v>2.126818062714542</v>
+        <v>2.126635517652049</v>
       </c>
     </row>
     <row r="41">
@@ -1987,19 +1987,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>13430153.90053187</v>
+        <v>13429630.30053187</v>
       </c>
       <c r="F41" t="n">
         <v>26049055.08807717</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4977456438731043</v>
+        <v>0.4977299479147448</v>
       </c>
       <c r="H41" t="n">
         <v>0.89</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5592647683967464</v>
+        <v>0.5592471324884772</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>36989276.01546307</v>
+        <v>36988649.25546306</v>
       </c>
       <c r="F43" t="n">
         <v>39928030.75648577</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8126302844029003</v>
+        <v>0.8126180396286351</v>
       </c>
       <c r="H43" t="n">
         <v>0.89</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9130677352841576</v>
+        <v>0.9130539771108259</v>
       </c>
       <c r="J43" t="n">
-        <v>3.130677352841576</v>
+        <v>3.130539771108259</v>
       </c>
     </row>
     <row r="44">
@@ -2101,22 +2101,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30087370.10119576</v>
+        <v>30086504.75119576</v>
       </c>
       <c r="F44" t="n">
         <v>31513066.77791523</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8399083843965677</v>
+        <v>0.8398860549818506</v>
       </c>
       <c r="H44" t="n">
         <v>0.89</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9437172858388401</v>
+        <v>0.943692196608821</v>
       </c>
       <c r="J44" t="n">
-        <v>3.437172858388401</v>
+        <v>3.43692196608821</v>
       </c>
     </row>
     <row r="45">
@@ -2139,22 +2139,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29257967.5597691</v>
+        <v>29256595.3897691</v>
       </c>
       <c r="F45" t="n">
         <v>33258293.92799006</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7496446689527719</v>
+        <v>0.7496122038939691</v>
       </c>
       <c r="H45" t="n">
         <v>0.89</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8422973808458112</v>
+        <v>0.8422609032516507</v>
       </c>
       <c r="J45" t="n">
-        <v>2.422973808458111</v>
+        <v>2.422609032516507</v>
       </c>
     </row>
     <row r="46">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32422899.25123952</v>
+        <v>32422202.85123952</v>
       </c>
       <c r="F46" t="n">
         <v>34467485.51306829</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8395193532726331</v>
+        <v>0.8395027364608317</v>
       </c>
       <c r="H46" t="n">
         <v>0.89</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9432801722164417</v>
+        <v>0.943261501641384</v>
       </c>
       <c r="J46" t="n">
-        <v>3.432801722164417</v>
+        <v>3.43261501641384</v>
       </c>
     </row>
     <row r="47">
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>92274796.41192357</v>
+        <v>92273654.09416656</v>
       </c>
       <c r="F48" t="n">
         <v>75863337.19713175</v>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>60588894.68327582</v>
+        <v>60588297.18327582</v>
       </c>
       <c r="F49" t="n">
         <v>50117934.39785778</v>
@@ -2367,22 +2367,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42588632.60482872</v>
+        <v>42588443.55482873</v>
       </c>
       <c r="F51" t="n">
         <v>40034225.81447299</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9383032962395739</v>
+        <v>0.9382995216464858</v>
       </c>
       <c r="H51" t="n">
         <v>0.89</v>
       </c>
       <c r="I51" t="n">
-        <v>1.054273366561319</v>
+        <v>1.05426912544549</v>
       </c>
       <c r="J51" t="n">
-        <v>4.271366832806595</v>
+        <v>4.271345627227449</v>
       </c>
     </row>
     <row r="52">
@@ -2405,19 +2405,19 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29604886.51614593</v>
+        <v>29604886.51614594</v>
       </c>
       <c r="F52" t="n">
         <v>48960981.85540658</v>
       </c>
       <c r="G52" t="n">
-        <v>0.566905478508549</v>
+        <v>0.5669054785085491</v>
       </c>
       <c r="H52" t="n">
         <v>0.89</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6369724477624146</v>
+        <v>0.6369724477624147</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -2443,19 +2443,19 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15580876.84177562</v>
+        <v>15580876.84177563</v>
       </c>
       <c r="F53" t="n">
         <v>25207077.85065303</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5821560969857642</v>
+        <v>0.5821560969857643</v>
       </c>
       <c r="H53" t="n">
         <v>0.89</v>
       </c>
       <c r="I53" t="n">
-        <v>0.6541079741413081</v>
+        <v>0.6541079741413082</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -2481,22 +2481,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32538219.03039433</v>
+        <v>32537729.73039432</v>
       </c>
       <c r="F54" t="n">
         <v>33290558.15981892</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8759603431545825</v>
+        <v>0.8759481159673977</v>
       </c>
       <c r="H54" t="n">
         <v>0.89</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9842251046680702</v>
+        <v>0.9842113662555031</v>
       </c>
       <c r="J54" t="n">
-        <v>3.842251046680702</v>
+        <v>3.842113662555031</v>
       </c>
     </row>
     <row r="55">
@@ -2519,22 +2519,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>34811333.5905926</v>
+        <v>34811184.7005926</v>
       </c>
       <c r="F55" t="n">
         <v>34518545.48132537</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9130559448699274</v>
+        <v>0.9130522554145727</v>
       </c>
       <c r="H55" t="n">
         <v>0.89</v>
       </c>
       <c r="I55" t="n">
-        <v>1.025905556033626</v>
+        <v>1.025901410578172</v>
       </c>
       <c r="J55" t="n">
-        <v>4.129527780168131</v>
+        <v>4.129507052890858</v>
       </c>
     </row>
     <row r="56">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25079345.84936029</v>
+        <v>25079273.40936029</v>
       </c>
       <c r="F56" t="n">
         <v>26835714.68884011</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8548407317806482</v>
+        <v>0.8548385648315862</v>
       </c>
       <c r="H56" t="n">
         <v>0.89</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9604952042479193</v>
+        <v>0.9604927694736923</v>
       </c>
       <c r="J56" t="n">
-        <v>3.604952042479193</v>
+        <v>3.604927694736923</v>
       </c>
     </row>
     <row r="57">
@@ -2595,22 +2595,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29998022.43863415</v>
+        <v>29997694.66863415</v>
       </c>
       <c r="F57" t="n">
         <v>31642147.75051564</v>
       </c>
       <c r="G57" t="n">
-        <v>0.850239133266678</v>
+        <v>0.8502305950766103</v>
       </c>
       <c r="H57" t="n">
         <v>0.89</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9553248688389641</v>
+        <v>0.9553152753669778</v>
       </c>
       <c r="J57" t="n">
-        <v>3.55324868838964</v>
+        <v>3.553152753669778</v>
       </c>
     </row>
     <row r="58">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52529504.04993203</v>
+        <v>52528765.04993203</v>
       </c>
       <c r="F58" t="n">
         <v>49872646.72079798</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9469737021067991</v>
+        <v>0.9469605574472145</v>
       </c>
       <c r="H58" t="n">
         <v>0.89</v>
       </c>
       <c r="I58" t="n">
-        <v>1.064015395625617</v>
+        <v>1.064000626345185</v>
       </c>
       <c r="J58" t="n">
-        <v>4.320076978128085</v>
+        <v>4.320003131725924</v>
       </c>
     </row>
     <row r="59">
@@ -2671,22 +2671,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26918443.98836599</v>
+        <v>26918672.31836599</v>
       </c>
       <c r="F59" t="n">
         <v>29765732.4441013</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8079346009325832</v>
+        <v>0.8079407146779914</v>
       </c>
       <c r="H59" t="n">
         <v>0.89</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9077916864411046</v>
+        <v>0.9077985558179679</v>
       </c>
       <c r="J59" t="n">
-        <v>3.077916864411046</v>
+        <v>3.077985558179678</v>
       </c>
     </row>
     <row r="60">
@@ -2709,22 +2709,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>35905999.26865862</v>
+        <v>35905699.26865863</v>
       </c>
       <c r="F60" t="n">
         <v>36821608.28282519</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8698250989708088</v>
+        <v>0.8698181898128176</v>
       </c>
       <c r="H60" t="n">
         <v>0.89</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9773315718773133</v>
+        <v>0.9773238087784467</v>
       </c>
       <c r="J60" t="n">
-        <v>3.773315718773134</v>
+        <v>3.773238087784467</v>
       </c>
     </row>
     <row r="61">
@@ -2747,22 +2747,22 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26972995.57005513</v>
+        <v>26972714.78005514</v>
       </c>
       <c r="F61" t="n">
         <v>28277028.24908219</v>
       </c>
       <c r="G61" t="n">
-        <v>0.845114966434817</v>
+        <v>0.8451068082828027</v>
       </c>
       <c r="H61" t="n">
         <v>0.89</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9495673780166483</v>
+        <v>0.9495582115537109</v>
       </c>
       <c r="J61" t="n">
-        <v>3.495673780166483</v>
+        <v>3.495582115537109</v>
       </c>
     </row>
     <row r="62">
@@ -2785,22 +2785,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28717632.85386608</v>
+        <v>28717931.85386608</v>
       </c>
       <c r="F62" t="n">
         <v>27687655.77210579</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9214228525948748</v>
+        <v>0.921431926387542</v>
       </c>
       <c r="H62" t="n">
         <v>0.89</v>
       </c>
       <c r="I62" t="n">
-        <v>1.035306575949297</v>
+        <v>1.035316771221957</v>
       </c>
       <c r="J62" t="n">
-        <v>4.176532879746487</v>
+        <v>4.176583856109787</v>
       </c>
     </row>
     <row r="63">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>52043897.98964339</v>
+        <v>52043471.9996434</v>
       </c>
       <c r="F63" t="n">
         <v>39413586.09229174</v>
@@ -2867,16 +2867,16 @@
         <v>16731668.90346297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.676778735219</v>
+        <v>0.6767787352189999</v>
       </c>
       <c r="H64" t="n">
         <v>0.89</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7604255451898876</v>
+        <v>0.7604255451898875</v>
       </c>
       <c r="J64" t="n">
-        <v>1.604255451898876</v>
+        <v>1.604255451898875</v>
       </c>
     </row>
     <row r="65">
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8829862.332435802</v>
+        <v>8829862.3324358</v>
       </c>
       <c r="F66" t="n">
         <v>13640238.82995053</v>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>7928669.327353201</v>
+        <v>7928669.3273532</v>
       </c>
       <c r="F67" t="n">
         <v>13777896.94703015</v>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>60444478.28513507</v>
+        <v>60443584.03513508</v>
       </c>
       <c r="F69" t="n">
         <v>47112592.96123534</v>
@@ -3089,22 +3089,22 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36059815.59612565</v>
+        <v>36058670.63612564</v>
       </c>
       <c r="F70" t="n">
         <v>35186307.93527307</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9120978224498791</v>
+        <v>0.9120701300632323</v>
       </c>
       <c r="H70" t="n">
         <v>0.89</v>
       </c>
       <c r="I70" t="n">
-        <v>1.024829013988628</v>
+        <v>1.024797898947452</v>
       </c>
       <c r="J70" t="n">
-        <v>4.124145069943141</v>
+        <v>4.12398949473726</v>
       </c>
     </row>
     <row r="71">
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>14742335.77716245</v>
+        <v>14742335.77716246</v>
       </c>
       <c r="F71" t="n">
         <v>19407541.99258402</v>
@@ -3209,16 +3209,16 @@
         <v>25284351.6067163</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8683886880582211</v>
+        <v>0.8683886880582212</v>
       </c>
       <c r="H73" t="n">
         <v>0.89</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9757176270317091</v>
+        <v>0.9757176270317093</v>
       </c>
       <c r="J73" t="n">
-        <v>3.757176270317091</v>
+        <v>3.757176270317093</v>
       </c>
     </row>
     <row r="74">
@@ -3241,22 +3241,22 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27613140.13608221</v>
+        <v>27613839.13608221</v>
       </c>
       <c r="F74" t="n">
         <v>29487383.82789268</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8345591514764501</v>
+        <v>0.8345787940132894</v>
       </c>
       <c r="H74" t="n">
         <v>0.89</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9377069117712923</v>
+        <v>0.9377289820374037</v>
       </c>
       <c r="J74" t="n">
-        <v>3.377069117712923</v>
+        <v>3.377289820374037</v>
       </c>
     </row>
     <row r="75">
@@ -3279,22 +3279,22 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20421471.62005551</v>
+        <v>20421256.91005551</v>
       </c>
       <c r="F75" t="n">
         <v>24602736.02398713</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7489457189279177</v>
+        <v>0.7489382743567317</v>
       </c>
       <c r="H75" t="n">
         <v>0.89</v>
       </c>
       <c r="I75" t="n">
-        <v>0.8415120437392334</v>
+        <v>0.8415036790525074</v>
       </c>
       <c r="J75" t="n">
-        <v>2.415120437392333</v>
+        <v>2.415036790525074</v>
       </c>
     </row>
     <row r="76">
@@ -3323,13 +3323,13 @@
         <v>24159572.29864446</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7440927558588577</v>
+        <v>0.7440927558588578</v>
       </c>
       <c r="H76" t="n">
         <v>0.89</v>
       </c>
       <c r="I76" t="n">
-        <v>0.8360592762459075</v>
+        <v>0.8360592762459076</v>
       </c>
       <c r="J76" t="n">
         <v>2.360592762459075</v>
@@ -3355,22 +3355,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12883653.5084714</v>
+        <v>12883164.2084714</v>
       </c>
       <c r="F77" t="n">
         <v>17480040.85944915</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6725342798514298</v>
+        <v>0.6725111071950227</v>
       </c>
       <c r="H77" t="n">
         <v>0.89</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7556564942150896</v>
+        <v>0.7556304575224975</v>
       </c>
       <c r="J77" t="n">
-        <v>1.556564942150896</v>
+        <v>1.556304575224975</v>
       </c>
     </row>
     <row r="78">
@@ -3393,19 +3393,19 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>9254386.134003749</v>
+        <v>9254230.154003749</v>
       </c>
       <c r="F78" t="n">
         <v>14369383.00554064</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5999507382350014</v>
+        <v>0.5999414896240882</v>
       </c>
       <c r="H78" t="n">
         <v>0.89</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6741019530730353</v>
+        <v>0.6740915613753801</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40435606.58040583</v>
+        <v>40435999.40040583</v>
       </c>
       <c r="F79" t="n">
         <v>34221163.25452465</v>
@@ -3469,22 +3469,22 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31468273.05646322</v>
+        <v>31467143.14646323</v>
       </c>
       <c r="F80" t="n">
         <v>29577668.6208066</v>
       </c>
       <c r="G80" t="n">
-        <v>0.947151621194696</v>
+        <v>0.9471173588361015</v>
       </c>
       <c r="H80" t="n">
         <v>0.89</v>
       </c>
       <c r="I80" t="n">
-        <v>1.064215304713142</v>
+        <v>1.064176807681013</v>
       </c>
       <c r="J80" t="n">
-        <v>4.321076523565708</v>
+        <v>4.320884038405065</v>
       </c>
     </row>
     <row r="81">
@@ -3507,22 +3507,22 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>15281759.69396999</v>
+        <v>15281373.37396998</v>
       </c>
       <c r="F81" t="n">
         <v>18490633.35295475</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7457995821676638</v>
+        <v>0.7457806545589566</v>
       </c>
       <c r="H81" t="n">
         <v>0.89</v>
       </c>
       <c r="I81" t="n">
-        <v>0.8379770586153527</v>
+        <v>0.837955791639277</v>
       </c>
       <c r="J81" t="n">
-        <v>2.379770586153526</v>
+        <v>2.37955791639277</v>
       </c>
     </row>
     <row r="82">
@@ -3583,22 +3583,22 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11312821.15231344</v>
+        <v>11312322.15231344</v>
       </c>
       <c r="F83" t="n">
         <v>15106815.48193983</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6734348124183667</v>
+        <v>0.6734060391445914</v>
       </c>
       <c r="H83" t="n">
         <v>0.89</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7566683285599626</v>
+        <v>0.7566359990388667</v>
       </c>
       <c r="J83" t="n">
-        <v>1.566683285599626</v>
+        <v>1.566359990388667</v>
       </c>
     </row>
     <row r="84">
@@ -3665,16 +3665,16 @@
         <v>14251011.18564963</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6524429717884307</v>
+        <v>0.6524429717884308</v>
       </c>
       <c r="H85" t="n">
         <v>0.89</v>
       </c>
       <c r="I85" t="n">
-        <v>0.7330819907735177</v>
+        <v>0.7330819907735178</v>
       </c>
       <c r="J85" t="n">
-        <v>1.330819907735177</v>
+        <v>1.330819907735178</v>
       </c>
     </row>
     <row r="86">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>39459244.7485735</v>
+        <v>39459251.1685735</v>
       </c>
       <c r="F86" t="n">
         <v>32760282.16805918</v>
@@ -3773,22 +3773,22 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28159709.71221178</v>
+        <v>28159993.08221178</v>
       </c>
       <c r="F88" t="n">
         <v>27308228.66923971</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9104883476506376</v>
+        <v>0.9104969395647577</v>
       </c>
       <c r="H88" t="n">
         <v>0.89</v>
       </c>
       <c r="I88" t="n">
-        <v>1.023020615337795</v>
+        <v>1.023030269173885</v>
       </c>
       <c r="J88" t="n">
-        <v>4.115103076688975</v>
+        <v>4.115151345869426</v>
       </c>
     </row>
     <row r="89">
@@ -3817,13 +3817,13 @@
         <v>30229747.63910557</v>
       </c>
       <c r="G89" t="n">
-        <v>0.5294041869178371</v>
+        <v>0.5294041869178372</v>
       </c>
       <c r="H89" t="n">
         <v>0.89</v>
       </c>
       <c r="I89" t="n">
-        <v>0.5948361650762214</v>
+        <v>0.5948361650762216</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -3849,22 +3849,22 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20252650.35602683</v>
+        <v>20252651.85602683</v>
       </c>
       <c r="F90" t="n">
         <v>19986697.99593686</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9002648137142918</v>
+        <v>0.9002648768222921</v>
       </c>
       <c r="H90" t="n">
         <v>0.89</v>
       </c>
       <c r="I90" t="n">
-        <v>1.011533498555384</v>
+        <v>1.011533569463249</v>
       </c>
       <c r="J90" t="n">
-        <v>4.057667492776921</v>
+        <v>4.057667847316248</v>
       </c>
     </row>
     <row r="91">
@@ -3893,16 +3893,16 @@
         <v>20653429.26726534</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8635661367647839</v>
+        <v>0.8635661367647838</v>
       </c>
       <c r="H91" t="n">
         <v>0.89</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9702990300727908</v>
+        <v>0.9702990300727907</v>
       </c>
       <c r="J91" t="n">
-        <v>3.702990300727908</v>
+        <v>3.702990300727907</v>
       </c>
     </row>
     <row r="92">
@@ -3925,22 +3925,22 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28214627.63523245</v>
+        <v>28215169.11523245</v>
       </c>
       <c r="F92" t="n">
         <v>34350547.04180295</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7389239644943673</v>
+        <v>0.7389380720582475</v>
       </c>
       <c r="H92" t="n">
         <v>0.89</v>
       </c>
       <c r="I92" t="n">
-        <v>0.8302516454992891</v>
+        <v>0.83026749669466</v>
       </c>
       <c r="J92" t="n">
-        <v>2.302516454992891</v>
+        <v>2.3026749669466</v>
       </c>
     </row>
     <row r="93">
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32667457.89219126</v>
+        <v>32667457.89219125</v>
       </c>
       <c r="F93" t="n">
         <v>27411071.70637484</v>
@@ -4001,22 +4001,22 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>15534541.96009488</v>
+        <v>15534491.96009488</v>
       </c>
       <c r="F94" t="n">
         <v>16651247.70231638</v>
       </c>
       <c r="G94" t="n">
-        <v>0.8319025581184867</v>
+        <v>0.8319000124026564</v>
       </c>
       <c r="H94" t="n">
         <v>0.89</v>
       </c>
       <c r="I94" t="n">
-        <v>0.93472197541403</v>
+        <v>0.9347191150591645</v>
       </c>
       <c r="J94" t="n">
-        <v>3.3472197541403</v>
+        <v>3.347191150591645</v>
       </c>
     </row>
     <row r="95">
@@ -4039,22 +4039,22 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>26860735.20263911</v>
+        <v>26860435.3026391</v>
       </c>
       <c r="F95" t="n">
         <v>28033406.94562664</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8529644180686534</v>
+        <v>0.8529550058833794</v>
       </c>
       <c r="H95" t="n">
         <v>0.89</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9583869865939926</v>
+        <v>0.9583764111049207</v>
       </c>
       <c r="J95" t="n">
-        <v>3.583869865939926</v>
+        <v>3.583764111049207</v>
       </c>
     </row>
     <row r="96">
@@ -4083,16 +4083,16 @@
         <v>26855312.75870773</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9930011306509207</v>
+        <v>0.9930011306509205</v>
       </c>
       <c r="H96" t="n">
         <v>0.89</v>
       </c>
       <c r="I96" t="n">
-        <v>1.115731607472945</v>
+        <v>1.115731607472944</v>
       </c>
       <c r="J96" t="n">
-        <v>4.578658037364724</v>
+        <v>4.578658037364722</v>
       </c>
     </row>
     <row r="97">
@@ -4115,22 +4115,22 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>16020104.95486716</v>
+        <v>16019994.46486716</v>
       </c>
       <c r="F97" t="n">
         <v>20627220.08483222</v>
       </c>
       <c r="G97" t="n">
-        <v>0.6957987504039507</v>
+        <v>0.69579430747236</v>
       </c>
       <c r="H97" t="n">
         <v>0.89</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7817963487684839</v>
+        <v>0.7817913567105169</v>
       </c>
       <c r="J97" t="n">
-        <v>1.817963487684839</v>
+        <v>1.817913567105169</v>
       </c>
     </row>
     <row r="98">
@@ -4191,7 +4191,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>49550329.04584284</v>
+        <v>49550785.04584283</v>
       </c>
       <c r="F99" t="n">
         <v>39523973.54486168</v>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>53837156.72828537</v>
+        <v>53835312.92828538</v>
       </c>
       <c r="F100" t="n">
         <v>33675057.02555733</v>
@@ -4343,22 +4343,22 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>37225625.7944789</v>
+        <v>37224640.7444789</v>
       </c>
       <c r="F103" t="n">
         <v>33261115.11815035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.9876895807519308</v>
+        <v>0.9876643783929339</v>
       </c>
       <c r="H103" t="n">
         <v>0.89</v>
       </c>
       <c r="I103" t="n">
-        <v>1.109763573878574</v>
+        <v>1.109735256621274</v>
       </c>
       <c r="J103" t="n">
-        <v>4.548817869392869</v>
+        <v>4.54867628310637</v>
       </c>
     </row>
     <row r="104">
@@ -4387,16 +4387,16 @@
         <v>18312378.05237943</v>
       </c>
       <c r="G104" t="n">
-        <v>0.6654738407577444</v>
+        <v>0.6654738407577443</v>
       </c>
       <c r="H104" t="n">
         <v>0.89</v>
       </c>
       <c r="I104" t="n">
-        <v>0.7477234165817352</v>
+        <v>0.7477234165817351</v>
       </c>
       <c r="J104" t="n">
-        <v>1.477234165817352</v>
+        <v>1.477234165817351</v>
       </c>
     </row>
     <row r="105">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43054938.08002857</v>
+        <v>43054686.12002857</v>
       </c>
       <c r="F106" t="n">
         <v>31007875.0235481</v>
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>42505998.36119717</v>
+        <v>42505998.36119716</v>
       </c>
       <c r="F107" t="n">
         <v>33518103.84280549</v>
@@ -4533,19 +4533,19 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>6645895.109135135</v>
+        <v>6645745.109135135</v>
       </c>
       <c r="F108" t="n">
         <v>13004523.22523697</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4916028142153651</v>
+        <v>0.4915926181360877</v>
       </c>
       <c r="H108" t="n">
         <v>0.89</v>
       </c>
       <c r="I108" t="n">
-        <v>0.5523627126015338</v>
+        <v>0.5523512563326828</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -4571,22 +4571,22 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>15191485.69809885</v>
+        <v>15191086.69809885</v>
       </c>
       <c r="F109" t="n">
         <v>17775197.92507793</v>
       </c>
       <c r="G109" t="n">
-        <v>0.7602759229045833</v>
+        <v>0.7602570828325965</v>
       </c>
       <c r="H109" t="n">
         <v>0.89</v>
       </c>
       <c r="I109" t="n">
-        <v>0.8542426100051498</v>
+        <v>0.8542214413849399</v>
       </c>
       <c r="J109" t="n">
-        <v>2.542426100051498</v>
+        <v>2.542214413849399</v>
       </c>
     </row>
     <row r="110">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>55320976.5696887</v>
+        <v>55320590.2496887</v>
       </c>
       <c r="F110" t="n">
         <v>39969918.96513288</v>
@@ -4647,22 +4647,22 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25110210.50442835</v>
+        <v>25110210.50442834</v>
       </c>
       <c r="F111" t="n">
         <v>30680748.00837342</v>
       </c>
       <c r="G111" t="n">
-        <v>0.7362905047659919</v>
+        <v>0.7362905047659918</v>
       </c>
       <c r="H111" t="n">
         <v>0.89</v>
       </c>
       <c r="I111" t="n">
-        <v>0.8272927019842605</v>
+        <v>0.8272927019842604</v>
       </c>
       <c r="J111" t="n">
-        <v>2.272927019842605</v>
+        <v>2.272927019842604</v>
       </c>
     </row>
     <row r="112">
@@ -4685,19 +4685,19 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>10901201.98301181</v>
+        <v>10901176.48301181</v>
       </c>
       <c r="F112" t="n">
         <v>16555102.21135458</v>
       </c>
       <c r="G112" t="n">
-        <v>0.6135739371745452</v>
+        <v>0.6135726377763177</v>
       </c>
       <c r="H112" t="n">
         <v>0.89</v>
       </c>
       <c r="I112" t="n">
-        <v>0.6894089181736464</v>
+        <v>0.6894074581756378</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
